--- a/ValueSet-vs-covid19-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-covid19-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T09:10:23+00:00</t>
+    <t>2023-02-15T09:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-covid19-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:39:10+00:00</t>
+    <t>2023-02-15T10:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-covid19-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:47:55+00:00</t>
+    <t>2023-02-15T14:53:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-covid19-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T14:53:45+00:00</t>
+    <t>2023-02-15T15:02:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-covid19-reason-for-assessment-or-test-not-performed.xlsx
+++ b/ValueSet-vs-covid19-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T15:02:29+00:00</t>
+    <t>2023-02-15T19:34:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
